--- a/Assets/Data/CreditData.xlsx
+++ b/Assets/Data/CreditData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9d72655d379bd3/ドキュメント/FLUFF_SWING/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A86046C-A533-4DB1-BC8E-7D4B84717FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{7A86046C-A533-4DB1-BC8E-7D4B84717FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05E387A-1B46-4EC6-AC0E-48C98F738ED0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3D0F44F-3942-4471-9EB6-8DA0D99DF614}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3D0F44F-3942-4471-9EB6-8DA0D99DF614}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CreditData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -135,7 +132,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FLUFFSWING_0.png</t>
+    <t>TitleLogo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,19 +506,19 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="80.875" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" customWidth="1"/>
+    <col min="2" max="2" width="27.09765625" customWidth="1"/>
+    <col min="3" max="3" width="80.8984375" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -543,15 +540,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -562,15 +559,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -581,15 +578,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -600,15 +597,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -619,15 +616,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -638,15 +635,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -657,15 +654,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -676,15 +673,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -692,7 +689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>

--- a/Assets/Data/CreditData.xlsx
+++ b/Assets/Data/CreditData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9d72655d379bd3/ドキュメント/FLUFF_SWING/Assets/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{7A86046C-A533-4DB1-BC8E-7D4B84717FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05E387A-1B46-4EC6-AC0E-48C98F738ED0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05E0A7F-DAA1-4E23-8A52-E02A790E1984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3D0F44F-3942-4471-9EB6-8DA0D99DF614}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3D0F44F-3942-4471-9EB6-8DA0D99DF614}"/>
   </bookViews>
   <sheets>
     <sheet name="CreditData" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -72,10 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Koha</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LOGO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -92,18 +91,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Koha, Sample</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Title Designer</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bia</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sounds Used</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -133,6 +124,18 @@
   </si>
   <si>
     <t>TitleLogo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Koharubiyori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Koharubiyori, Sample</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,16 +512,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="2" max="2" width="27.09765625" customWidth="1"/>
-    <col min="3" max="3" width="80.8984375" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="80.875" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,23 +535,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -556,10 +559,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -567,18 +570,18 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -586,18 +589,18 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -605,18 +608,18 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -624,18 +627,18 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -643,18 +646,18 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -662,18 +665,18 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -681,15 +684,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>7</v>
       </c>

--- a/Assets/Data/CreditData.xlsx
+++ b/Assets/Data/CreditData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05E0A7F-DAA1-4E23-8A52-E02A790E1984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AEB4FA-5DF4-4301-9F1C-A0F729606285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3D0F44F-3942-4471-9EB6-8DA0D99DF614}"/>
   </bookViews>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>美咲フォント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Special Thanks</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -136,6 +132,10 @@
   </si>
   <si>
     <t>Koharubiyori, Sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美咲フォント, Melonano</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -540,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -597,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -616,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -654,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -670,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -689,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">

--- a/Assets/Data/CreditData.xlsx
+++ b/Assets/Data/CreditData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312029\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AEB4FA-5DF4-4301-9F1C-A0F729606285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F164AEC5-950E-4DBC-A319-1B0F30A91B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3D0F44F-3942-4471-9EB6-8DA0D99DF614}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sample</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Programmer</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -131,11 +127,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Koharubiyori, Sample</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>美咲フォント, Melonano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tool Used</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニドット絵メーカー３</t>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Koharubiyori, Bon</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -506,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181BA3B1-9047-4549-AB48-0652D2EFF3C4}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -540,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -559,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -578,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -594,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -613,10 +624,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -632,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -651,10 +662,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -670,30 +681,49 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Data/CreditData.xlsx
+++ b/Assets/Data/CreditData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312029\Documents\FLUFF_SWING\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F164AEC5-950E-4DBC-A319-1B0F30A91B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFA373-36B5-4AB4-80BC-9FF9EA1926EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3D0F44F-3942-4471-9EB6-8DA0D99DF614}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>Koharubiyori, Bon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TeamLogo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -517,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181BA3B1-9047-4549-AB48-0652D2EFF3C4}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -711,19 +715,35 @@
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Data/CreditData.xlsx
+++ b/Assets/Data/CreditData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9d72655d379bd3/ドキュメント/FLUFF_SWING/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFA373-36B5-4AB4-80BC-9FF9EA1926EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{85BFA373-36B5-4AB4-80BC-9FF9EA1926EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4452557E-648D-4A21-97E7-FFCA069D8668}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3D0F44F-3942-4471-9EB6-8DA0D99DF614}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3D0F44F-3942-4471-9EB6-8DA0D99DF614}"/>
   </bookViews>
   <sheets>
     <sheet name="CreditData" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -222,6 +219,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,20 +524,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181BA3B1-9047-4549-AB48-0652D2EFF3C4}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="80.875" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" customWidth="1"/>
+    <col min="2" max="2" width="27.09765625" customWidth="1"/>
+    <col min="3" max="3" width="80.8984375" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -558,15 +559,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -577,7 +578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -585,7 +586,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -596,7 +597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -604,7 +605,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -615,7 +616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -623,7 +624,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -634,7 +635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -642,7 +643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -653,7 +654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -661,7 +662,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -672,7 +673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -680,7 +681,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -691,7 +692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -699,7 +700,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -710,15 +711,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -726,15 +727,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -742,7 +743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>7</v>
       </c>

--- a/Assets/Data/CreditData.xlsx
+++ b/Assets/Data/CreditData.xlsx
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181BA3B1-9047-4549-AB48-0652D2EFF3C4}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Assets/Data/CreditData.xlsx
+++ b/Assets/Data/CreditData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9d72655d379bd3/ドキュメント/FLUFF_SWING/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{85BFA373-36B5-4AB4-80BC-9FF9EA1926EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4452557E-648D-4A21-97E7-FFCA069D8668}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{85BFA373-36B5-4AB4-80BC-9FF9EA1926EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{494571EB-74DF-4FE4-BF58-9B5E7BF61CB2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3D0F44F-3942-4471-9EB6-8DA0D99DF614}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">

--- a/Assets/Data/CreditData.xlsx
+++ b/Assets/Data/CreditData.xlsx
@@ -219,10 +219,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181BA3B1-9047-4549-AB48-0652D2EFF3C4}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
